--- a/src/main/resources/womenBoohooTop.xlsx
+++ b/src/main/resources/womenBoohooTop.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="100">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,100 +32,133 @@
     <t>URL</t>
   </si>
   <si>
-    <t>WOMEN TOP</t>
+    <t>women_boohoo_top_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz94038_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>MOLLY SMITH MIX PRINT TIE FRONT MESH CAMI TOP</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/molly-smith-mix-print-tie-front-mesh-cami-top/GZZ94038.html?color=109</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_2</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz91909_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>MOLLY SMITH LACE BANDEAU TOP</t>
   </si>
   <si>
+    <t>$36.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/molly-smith-lace-bandeau-top-/GZZ91909.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz91907_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LACE BANDEAU TOP &amp; RUCHED SPLIT MAXI SKIRT</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/lace-bandeau-top-ruched-split-maxi-skirt/BOO03253.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_4</t>
+  </si>
+  <si>
+    <t>MIX PRINT RUFFLE DETAIL MESH MAXI SKIRT &amp; TIE FRONT MESH CAMI TOP</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/mix-print-ruffle-detail-mesh-maxi-skirt-tie-front-mesh-cami-top/BOO03257.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz91911_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MOLLY SMITH MESH HALTERNECK RING DETAIL CAMI</t>
+  </si>
+  <si>
     <t>$26.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/molly-smith-lace-bandeau-top-/GZZ91909.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz94038_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MOLLY SMITH MIX PRINT TIE FRONT MESH CAMI TOP</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/molly-smith-mix-print-tie-front-mesh-cami-top/GZZ94038.html?color=109</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91907_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LACE BANDEAU TOP &amp; RUCHED SPLIT MAXI SKIRT</t>
+    <t>https://ca.boohoo.com/molly-smith-mesh-halterneck-ring-detail-cami-/GZZ91911.html?color=155</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz91914_hot%20pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LACE RUCHED SPLIT MAXI SKIRT &amp; BANDEAU TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/lace-ruched-split-maxi-skirt-bandeau-top/BOO03254.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz91910_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MESH HALTERNECK RING DETAIL CAMI</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/mesh-halterneck-ring-detail-cami--/GZZ91910.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz91913_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MOLLY SMITH ANIMAL PRINTED SLINKY BANDEAU BODYSUIT</t>
   </si>
   <si>
     <t>$30.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/lace-bandeau-top-ruched-split-maxi-skirt/BOO03253.html</t>
-  </si>
-  <si>
-    <t>MIX PRINT RUFFLE DETAIL MESH MAXI SKIRT &amp; TIE FRONT MESH CAMI TOP</t>
-  </si>
-  <si>
-    <t>$36.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/mix-print-ruffle-detail-mesh-maxi-skirt-tie-front-mesh-cami-top/BOO03257.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91914_hot%20pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$22.00</t>
+    <t>https://ca.boohoo.com/molly-smith-animal-printed-slinky-bandeau-bodysuit-/GZZ91913.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_9</t>
+  </si>
+  <si>
+    <t>$28.50</t>
   </si>
   <si>
     <t>https://ca.boohoo.com/molly-smith-lace-bandeau-top-/GZZ91914.html</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91913_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MOLLY SMITH ANIMAL PRINTED SLINKY BANDEAU BODYSUIT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/molly-smith-animal-printed-slinky-bandeau-bodysuit-/GZZ91913.html?color=109</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91911_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MOLLY SMITH MESH HALTERNECK RING DETAIL CAMI</t>
-  </si>
-  <si>
-    <t>$20.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/molly-smith-mesh-halterneck-ring-detail-cami-/GZZ91911.html?color=155</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91910_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MESH HALTERNECK RING DETAIL CAMI</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/mesh-halterneck-ring-detail-cami--/GZZ91910.html?color=105</t>
-  </si>
-  <si>
-    <t>LACE RUCHED SPLIT MAXI SKIRT &amp; BANDEAU TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/lace-ruched-split-maxi-skirt-bandeau-top/BOO03254.html</t>
+    <t>women_boohoo_top_10</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz91917_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -137,25 +170,85 @@
     <t>https://ca.boohoo.com/molly-smith-leopard-mesh-lace-trim-jean-grazer-cami-/GZZ91917.html</t>
   </si>
   <si>
+    <t>women_boohoo_top_11</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/gzz91902_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
     <t>ANIMAL PRINTED MESH RUCHED MAXI SKIRT &amp; SLINKY BANDEAU BODYSUIT</t>
   </si>
   <si>
+    <t>https://ca.boohoo.com/animal-printed-mesh-ruched-maxi-skirt-slinky-bandeau-bodysuit/BOO03255.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz91916_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LEOPARD MESH LACE TRIM JEAN GRAZER CAMI &amp; MICRO MINI SKIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/leopard-mesh-lace-trim-jean-grazer-cami-micro-mini-skirt/BOO03256.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz34858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FRILL DETAIL LONG SLEEVE JERSEY KNIT FITTED TOP</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/frill-detail-long-sleeve-jersey-fitted-top/GZZ34858.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz46287_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RUFFLE DOBBY PEPLUM TOP</t>
+  </si>
+  <si>
     <t>$31.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/animal-printed-mesh-ruched-maxi-skirt-slinky-bandeau-bodysuit/BOO03255.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91916_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LEOPARD MESH LACE TRIM JEAN GRAZER CAMI &amp; MICRO MINI SKIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/leopard-mesh-lace-trim-jean-grazer-cami-micro-mini-skirt/BOO03256.html</t>
+    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=173</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz46287_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz65763_ash%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE FITTED TOP</t>
+  </si>
+  <si>
+    <t>$23.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-fitted-top/GZZ65763.html?color=978</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_17</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/pzz66650_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -164,19 +257,61 @@
     <t>PLUS OFF THE SHOULDER RUFFLE PEPLUM TOP</t>
   </si>
   <si>
-    <t>$23.50</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/plus-off-the-shoulder-ruffle-peplum-top/PZZ66650.html?color=105</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz46287_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RUFFLE DOBBY PEPLUM TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=105</t>
+    <t>women_boohoo_top_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz73805_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RIB WRAP CAP SLEEVE PEPLUM TOP</t>
+  </si>
+  <si>
+    <t>$18.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-rib-wrap-cap-sleeve-peplum-top/PZZ73805.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz77032_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PREMIUM SUPER SOFT WRAP LONG SLEEVE CROP TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/premium-super-soft-wrap-long-sleeve-crop-top/GZZ77032.html?color=508</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz76876_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HIGH TOP LACE UP TRAINERS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/high-top-lace-up-trainers-/GZZ76876.html?color=173</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz39180_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>EYELET SLEEVE TIE FRONT CROP TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/broderie-sleeve-tie-front-crop-top/GZZ39180.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_22</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz23042_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -188,73 +323,43 @@
     <t>https://ca.boohoo.com/shirred-underwired-halterneck-bikini-top/GZZ23042.html?color=105</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz46287_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$60.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz51994_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BENGALINE ZIP THROUGH CORSET TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/bengaline-zip-through-corset-top/GZZ51994.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz53397_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BANDEAU ZIP SIDE LONG LINE TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-bandeau-zip-side-long-line-top-/GZZ53397.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz50559_orange_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HALTER CROCHET CROP TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/halterneck-crochet-crop-top/GZZ50559.html?color=152</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bzz45652_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MATERNITY BUTTON FRONT WOVEN SMOCK TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/maternity-button-front-woven-smock-top/BZZ45652.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz80638_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PREMIUM SCULPT REFORM PILATES SET</t>
-  </si>
-  <si>
-    <t>$15.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/premium-sculpt-reform-pilates-set-/BOO03237.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/pzz73805_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RIB WRAP CAP SLEEVE PEPLUM TOP</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-rib-wrap-cap-sleeve-peplum-top/PZZ73805.html?color=105</t>
+    <t>women_boohoo_top_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75152_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS ACID BANDEAU DENIM TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-acid-bandeau-denim-top/GZZ75152.html?color=946</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz79449_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TOWELLING HALTERNECK TIE BIKINI TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/towelling-halterneck-tie-bikini-top/GZZ79449.html?color=130</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz62827_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS ONE SHOULDER RUCHED ASYMMETRIC TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-one-shoulder-ruched-asymmetric-top/GZZ62827.html?color=173</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_26</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz84575_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -266,52 +371,16 @@
     <t>https://ca.boohoo.com/metallic-flare-long-sleeve-top-/GZZ84575.html?color=157</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz82172_almond_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL POPLIN BUTTON MILKMAID CROP TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-poplin-button-milkmaid-crop-top-/GZZ82172.html?color=712</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz81793_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>EXTREME COWL SLINKY TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/extreme-cowl-slinky-top/GZZ81793.html?color=165</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz89409_lime_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TEXTURED SATIN ASYMMETRIC RUCHED TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/textured-satin-asymmetric-ruched-top/GZZ89409.html?color=194</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz78240_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SEAMLESS RIB SHORT SLEEVE TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/seamless-rib-short-sleeve-top/GZZ78240.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz21544_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SEQUIN LONG SLEEVED TOP</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-sequin-long-sleeved-top/GZZ21544.html?color=157</t>
+    <t>women_boohoo_top_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz71149_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>WASHED LONG SLEEVE TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/washed-long-sleeve-top/GZZ71149.html?color=115</t>
   </si>
 </sst>
 </file>
@@ -356,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -404,542 +473,522 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenBoohooTop.xlsx
+++ b/src/main/resources/womenBoohooTop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -152,235 +152,259 @@
     <t>women_boohoo_top_9</t>
   </si>
   <si>
+    <t>https://ca.boohoo.com/molly-smith-lace-bandeau-top-/GZZ91914.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz91902_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>ANIMAL PRINTED MESH RUCHED MAXI SKIRT &amp; SLINKY BANDEAU BODYSUIT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/animal-printed-mesh-ruched-maxi-skirt-slinky-bandeau-bodysuit/BOO03255.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz34858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FRILL DETAIL LONG SLEEVE JERSEY KNIT FITTED TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/frill-detail-long-sleeve-jersey-fitted-top/GZZ34858.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz46287_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RUFFLE DOBBY PEPLUM TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=173</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz46287_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>$31.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz65763_ash%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE FITTED TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-fitted-top/GZZ65763.html?color=978</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz66650_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS OFF THE SHOULDER RUFFLE PEPLUM TOP</t>
+  </si>
+  <si>
+    <t>$23.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-off-the-shoulder-ruffle-peplum-top/PZZ66650.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz73805_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RIB WRAP CAP SLEEVE PEPLUM TOP</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-rib-wrap-cap-sleeve-peplum-top/PZZ73805.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz77032_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PREMIUM SUPER SOFT WRAP LONG SLEEVE CROP TOP</t>
+  </si>
+  <si>
+    <t>$18.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/premium-super-soft-wrap-long-sleeve-crop-top/GZZ77032.html?color=508</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz76876_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HIGH TOP LACE UP TRAINERS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/high-top-lace-up-trainers-/GZZ76876.html?color=173</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz46320_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DOUBLE LAYER SLINKY SQUARE NECK LONG SLEEVE TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/double-layer-slinky-square-neck-long-sleeve-top/GZZ46320.html?color=124</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz23042_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHIRRED UNDERWIRED HALTER BIKINI TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/shirred-underwired-halterneck-bikini-top/GZZ23042.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75152_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS ACID BANDEAU DENIM TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-acid-bandeau-denim-top/GZZ75152.html?color=946</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz79449_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TOWELLING HALTERNECK TIE BIKINI TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/towelling-halterneck-tie-bikini-top/GZZ79449.html?color=130</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz84575_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>METALLIC FLARE LONG SLEEVE TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-flare-long-sleeve-top-/GZZ84575.html?color=157</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz71149_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>WASHED LONG SLEEVE TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/washed-long-sleeve-top/GZZ71149.html?color=115</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz74292_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>CONTRAST RIB HIGH NECK SPLIT HEM TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/contrast-rib-high-neck-split-hem-top/GZZ74292.html?color=508</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz85673_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LACE BACKLESS TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/lace-backless-top-/GZZ85673.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz77043_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PREMIUM SUPER SOFT SQUARE NECK LONG SLEEVE TOP</t>
+  </si>
+  <si>
     <t>$28.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/molly-smith-lace-bandeau-top-/GZZ91914.html</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_10</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91917_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MOLLY SMITH LEOPARD MESH LACE TRIM JEAN GRAZER CAMI</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/molly-smith-leopard-mesh-lace-trim-jean-grazer-cami-/GZZ91917.html</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_11</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91902_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>ANIMAL PRINTED MESH RUCHED MAXI SKIRT &amp; SLINKY BANDEAU BODYSUIT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/animal-printed-mesh-ruched-maxi-skirt-slinky-bandeau-bodysuit/BOO03255.html</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_12</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz91916_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LEOPARD MESH LACE TRIM JEAN GRAZER CAMI &amp; MICRO MINI SKIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/leopard-mesh-lace-trim-jean-grazer-cami-micro-mini-skirt/BOO03256.html</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_13</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz34858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FRILL DETAIL LONG SLEEVE JERSEY KNIT FITTED TOP</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/frill-detail-long-sleeve-jersey-fitted-top/GZZ34858.html?color=105</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_14</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz46287_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RUFFLE DOBBY PEPLUM TOP</t>
-  </si>
-  <si>
-    <t>$31.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=173</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_15</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz46287_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-ruffle-dobby-peplum-top/GZZ46287.html?color=105</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_16</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz65763_ash%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE FITTED TOP</t>
-  </si>
-  <si>
-    <t>$23.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-fitted-top/GZZ65763.html?color=978</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_17</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/pzz66650_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS OFF THE SHOULDER RUFFLE PEPLUM TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-off-the-shoulder-ruffle-peplum-top/PZZ66650.html?color=105</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_18</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/pzz73805_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RIB WRAP CAP SLEEVE PEPLUM TOP</t>
-  </si>
-  <si>
-    <t>$18.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-rib-wrap-cap-sleeve-peplum-top/PZZ73805.html?color=105</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_19</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz77032_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PREMIUM SUPER SOFT WRAP LONG SLEEVE CROP TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/premium-super-soft-wrap-long-sleeve-crop-top/GZZ77032.html?color=508</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_20</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz76876_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HIGH TOP LACE UP TRAINERS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/high-top-lace-up-trainers-/GZZ76876.html?color=173</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_21</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz39180_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>EYELET SLEEVE TIE FRONT CROP TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/broderie-sleeve-tie-front-crop-top/GZZ39180.html?color=105</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_22</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz23042_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHIRRED UNDERWIRED HALTER BIKINI TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/shirred-underwired-halterneck-bikini-top/GZZ23042.html?color=105</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_23</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz75152_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS ACID BANDEAU DENIM TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-acid-bandeau-denim-top/GZZ75152.html?color=946</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_24</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz79449_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TOWELLING HALTERNECK TIE BIKINI TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/towelling-halterneck-tie-bikini-top/GZZ79449.html?color=130</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_25</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz62827_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS ONE SHOULDER RUCHED ASYMMETRIC TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-one-shoulder-ruched-asymmetric-top/GZZ62827.html?color=173</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_26</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz84575_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC FLARE LONG SLEEVE TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-flare-long-sleeve-top-/GZZ84575.html?color=157</t>
-  </si>
-  <si>
-    <t>women_boohoo_top_27</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz71149_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WASHED LONG SLEEVE TOP</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/washed-long-sleeve-top/GZZ71149.html?color=115</t>
+    <t>https://ca.boohoo.com/premium-super-soft-square-neck-long-sleeve-top-/GZZ77043.html?color=167</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz53397_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BANDEAU ZIP SIDE LONG LINE TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-bandeau-zip-side-long-line-top-/GZZ53397.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_top_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz79544_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PUFF SLEEVE TEXTURED SMOCK TOP</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/puff-sleeve-textured-smock-top/GZZ79544.html?color=173</t>
   </si>
 </sst>
 </file>
@@ -425,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -625,167 +649,167 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>49</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>50</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>43</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="C12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>15</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>57</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="C14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>62</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="E15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="F16" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="E17" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="F17" t="s" s="0">
         <v>76</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="C18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="E18" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>63</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>81</v>
@@ -805,190 +829,230 @@
         <v>84</v>
       </c>
       <c r="E19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="C20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>89</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="C21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s" s="0">
+      <c r="E21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>38</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="C23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s" s="0">
+      <c r="E23" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="C24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s" s="0">
+      <c r="E24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="C25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s" s="0">
+      <c r="E25" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="C26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s" s="0">
+      <c r="E26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s" s="0">
+      <c r="E27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>117</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="C28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="E28" t="s" s="0">
         <v>121</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>122</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
